--- a/carriers_source_analyses/wet_biomass.carrier.xlsx
+++ b/carriers_source_analyses/wet_biomass.carrier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EC2F8F-20E0-B04B-A60E-955E3D2E0A4F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45695CB6-D4AB-8B40-A4FC-14AA93DE5ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -45,7 +45,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -56,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>Source</t>
   </si>
@@ -236,31 +239,6 @@
     </r>
   </si>
   <si>
-    <t>Actual CO2 emission from biomass</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>potential_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>co2_conversion_per_mj</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) </t>
   </si>
   <si>
@@ -275,23 +253,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -870,593 +841,589 @@
   </borders>
   <cellStyleXfs count="348">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="348">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2263,13 +2230,13 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="27" customFormat="1">
@@ -2295,7 +2262,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2304,7 +2271,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2461,25 +2428,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K15"/>
+  <dimension ref="B1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
     <col min="3" max="3" width="46" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -2490,7 +2457,7 @@
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
       <c r="B2" s="142" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="143"/>
       <c r="D2" s="143"/>
@@ -2590,7 +2557,7 @@
         <v>39</v>
       </c>
       <c r="H10" s="30"/>
-      <c r="I10" s="153" t="s">
+      <c r="I10" s="141" t="s">
         <v>40</v>
       </c>
       <c r="J10" s="40"/>
@@ -2598,13 +2565,13 @@
     <row r="11" spans="2:11" s="39" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="23"/>
       <c r="C11" s="101" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
-      <c r="E11" s="152">
-        <f>'Research data'!G7</f>
+      <c r="E11" s="140">
+        <f>'Research data'!G8</f>
         <v>0</v>
       </c>
       <c r="F11" s="34"/>
@@ -2613,73 +2580,35 @@
       <c r="I11" s="111"/>
       <c r="J11" s="40"/>
     </row>
-    <row r="12" spans="2:11" s="39" customFormat="1" ht="20" thickBot="1">
-      <c r="B12" s="23"/>
-      <c r="C12" s="101" t="s">
-        <v>49</v>
+    <row r="12" spans="2:11" ht="17" thickBot="1">
+      <c r="B12" s="38"/>
+      <c r="C12" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
-      <c r="E12" s="152">
-        <f>'Research data'!G8</f>
+      <c r="E12" s="140">
+        <f>'Research data'!G11</f>
         <v>0</v>
       </c>
       <c r="F12" s="34"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="30"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="34"/>
       <c r="I12" s="111"/>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1">
-      <c r="B13" s="38"/>
-      <c r="C13" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="152">
-        <f>'Research data'!G11</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="33"/>
-    </row>
-    <row r="14" spans="2:11" s="39" customFormat="1" ht="20" thickBot="1">
-      <c r="B14" s="23"/>
-      <c r="C14" s="130" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="154">
-        <f>'Research data'!G10</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="130"/>
-      <c r="G14" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="40"/>
-    </row>
-    <row r="15" spans="2:11" s="116" customFormat="1" ht="17" thickBot="1">
-      <c r="B15" s="117"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="119"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="2:11" s="116" customFormat="1" ht="17" thickBot="1">
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2701,20 +2630,20 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="62" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="62" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="62" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="62" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="62" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="62" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="63" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="62" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="62" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="62" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="62" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="62" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="62" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="63" customWidth="1"/>
     <col min="10" max="10" width="3" style="63" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" style="63" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="63" customWidth="1"/>
     <col min="12" max="12" width="60" style="62" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="62"/>
+    <col min="13" max="16384" width="10.85546875" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1"/>
@@ -2824,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="151"/>
+      <c r="I7" s="139"/>
       <c r="J7" s="17"/>
       <c r="K7" s="16"/>
       <c r="L7" s="107"/>
@@ -2848,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="151"/>
+      <c r="I8" s="139"/>
       <c r="J8" s="17"/>
       <c r="K8" s="16"/>
       <c r="L8" s="115"/>
@@ -2872,15 +2801,15 @@
         <v>0</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="151"/>
+      <c r="I9" s="139"/>
       <c r="J9" s="17"/>
       <c r="K9" s="16"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="133" t="s">
-        <v>54</v>
+      <c r="C10" s="131" t="s">
+        <v>52</v>
       </c>
       <c r="D10" s="105" t="s">
         <v>37</v>
@@ -2896,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="151"/>
+      <c r="I10" s="139"/>
       <c r="J10" s="17"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="137"/>
+      <c r="L10" s="135"/>
     </row>
     <row r="11" spans="2:12" ht="17" thickBot="1">
       <c r="B11" s="68"/>
@@ -2920,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="72"/>
-      <c r="I11" s="151"/>
+      <c r="I11" s="139"/>
       <c r="J11" s="17"/>
       <c r="K11" s="16"/>
       <c r="L11" s="115"/>
@@ -2955,19 +2884,19 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="42" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="42" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="42" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="42" customWidth="1"/>
     <col min="6" max="6" width="5" style="42" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="42" customWidth="1"/>
-    <col min="8" max="10" width="12.1640625" style="42" customWidth="1"/>
-    <col min="11" max="11" width="33.1640625" style="43" customWidth="1"/>
-    <col min="12" max="12" width="87.33203125" style="42" customWidth="1"/>
-    <col min="13" max="16384" width="33.1640625" style="42"/>
+    <col min="7" max="7" width="10.28515625" style="42" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="42" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="42" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1"/>
@@ -3068,15 +2997,15 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="47"/>
-      <c r="C8" s="138"/>
+      <c r="C8" s="136"/>
       <c r="D8" s="56"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
       <c r="G8" s="50"/>
       <c r="H8" s="51"/>
       <c r="I8" s="51"/>
       <c r="J8" s="51"/>
-      <c r="K8" s="140"/>
+      <c r="K8" s="138"/>
       <c r="L8" s="61"/>
     </row>
     <row r="9" spans="2:12">
@@ -3124,18 +3053,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI717"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="T693" sqref="T693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="96" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="96" customWidth="1"/>
     <col min="2" max="2" width="5" style="96" customWidth="1"/>
     <col min="3" max="5" width="7" style="96"/>
-    <col min="6" max="6" width="10.83203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="96" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="96"/>
-    <col min="8" max="8" width="8.83203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="96" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="7" style="96"/>
   </cols>
   <sheetData>
@@ -14620,7 +14549,7 @@
       <c r="T455" s="106"/>
       <c r="U455" s="106"/>
     </row>
-    <row r="456" spans="1:35" s="134" customFormat="1">
+    <row r="456" spans="1:35" s="132" customFormat="1">
       <c r="A456"/>
       <c r="B456" s="97"/>
       <c r="C456" s="106"/>
@@ -14657,7 +14586,7 @@
       <c r="AH456" s="124"/>
       <c r="AI456" s="124"/>
     </row>
-    <row r="457" spans="1:35" s="134" customFormat="1">
+    <row r="457" spans="1:35" s="132" customFormat="1">
       <c r="A457"/>
       <c r="B457" s="97"/>
       <c r="C457" s="106"/>
@@ -14679,22 +14608,22 @@
       <c r="S457" s="106"/>
       <c r="T457" s="106"/>
       <c r="U457" s="106"/>
-      <c r="V457" s="135"/>
-      <c r="W457" s="135"/>
-      <c r="X457" s="135"/>
-      <c r="Y457" s="135"/>
-      <c r="Z457" s="135"/>
-      <c r="AA457" s="135"/>
-      <c r="AB457" s="135"/>
-      <c r="AC457" s="135"/>
-      <c r="AD457" s="135"/>
-      <c r="AE457" s="135"/>
-      <c r="AF457" s="135"/>
-      <c r="AG457" s="135"/>
-      <c r="AH457" s="135"/>
-      <c r="AI457" s="135"/>
-    </row>
-    <row r="458" spans="1:35" s="134" customFormat="1">
+      <c r="V457" s="133"/>
+      <c r="W457" s="133"/>
+      <c r="X457" s="133"/>
+      <c r="Y457" s="133"/>
+      <c r="Z457" s="133"/>
+      <c r="AA457" s="133"/>
+      <c r="AB457" s="133"/>
+      <c r="AC457" s="133"/>
+      <c r="AD457" s="133"/>
+      <c r="AE457" s="133"/>
+      <c r="AF457" s="133"/>
+      <c r="AG457" s="133"/>
+      <c r="AH457" s="133"/>
+      <c r="AI457" s="133"/>
+    </row>
+    <row r="458" spans="1:35" s="132" customFormat="1">
       <c r="A458"/>
       <c r="B458" s="97"/>
       <c r="C458" s="106"/>
@@ -14720,18 +14649,18 @@
       <c r="W458" s="106"/>
       <c r="X458" s="106"/>
       <c r="Y458" s="106"/>
-      <c r="Z458" s="136"/>
-      <c r="AA458" s="136"/>
-      <c r="AB458" s="136"/>
-      <c r="AC458" s="136"/>
-      <c r="AD458" s="136"/>
-      <c r="AE458" s="136"/>
-      <c r="AF458" s="136"/>
-      <c r="AG458" s="136"/>
-      <c r="AH458" s="136"/>
-      <c r="AI458" s="136"/>
-    </row>
-    <row r="459" spans="1:35" s="134" customFormat="1">
+      <c r="Z458" s="134"/>
+      <c r="AA458" s="134"/>
+      <c r="AB458" s="134"/>
+      <c r="AC458" s="134"/>
+      <c r="AD458" s="134"/>
+      <c r="AE458" s="134"/>
+      <c r="AF458" s="134"/>
+      <c r="AG458" s="134"/>
+      <c r="AH458" s="134"/>
+      <c r="AI458" s="134"/>
+    </row>
+    <row r="459" spans="1:35" s="132" customFormat="1">
       <c r="A459"/>
       <c r="B459" s="97"/>
       <c r="C459" s="106"/>
@@ -14757,18 +14686,18 @@
       <c r="W459" s="106"/>
       <c r="X459" s="106"/>
       <c r="Y459" s="106"/>
-      <c r="Z459" s="136"/>
-      <c r="AA459" s="136"/>
-      <c r="AB459" s="136"/>
-      <c r="AC459" s="136"/>
-      <c r="AD459" s="136"/>
-      <c r="AE459" s="136"/>
-      <c r="AF459" s="136"/>
-      <c r="AG459" s="136"/>
-      <c r="AH459" s="136"/>
-      <c r="AI459" s="136"/>
-    </row>
-    <row r="460" spans="1:35" s="134" customFormat="1">
+      <c r="Z459" s="134"/>
+      <c r="AA459" s="134"/>
+      <c r="AB459" s="134"/>
+      <c r="AC459" s="134"/>
+      <c r="AD459" s="134"/>
+      <c r="AE459" s="134"/>
+      <c r="AF459" s="134"/>
+      <c r="AG459" s="134"/>
+      <c r="AH459" s="134"/>
+      <c r="AI459" s="134"/>
+    </row>
+    <row r="460" spans="1:35" s="132" customFormat="1">
       <c r="A460"/>
       <c r="B460" s="97"/>
       <c r="C460" s="106"/>
@@ -14794,18 +14723,18 @@
       <c r="W460" s="106"/>
       <c r="X460" s="106"/>
       <c r="Y460" s="106"/>
-      <c r="Z460" s="136"/>
-      <c r="AA460" s="136"/>
-      <c r="AB460" s="136"/>
-      <c r="AC460" s="136"/>
-      <c r="AD460" s="136"/>
-      <c r="AE460" s="136"/>
-      <c r="AF460" s="136"/>
-      <c r="AG460" s="136"/>
-      <c r="AH460" s="136"/>
-      <c r="AI460" s="136"/>
-    </row>
-    <row r="461" spans="1:35" s="134" customFormat="1">
+      <c r="Z460" s="134"/>
+      <c r="AA460" s="134"/>
+      <c r="AB460" s="134"/>
+      <c r="AC460" s="134"/>
+      <c r="AD460" s="134"/>
+      <c r="AE460" s="134"/>
+      <c r="AF460" s="134"/>
+      <c r="AG460" s="134"/>
+      <c r="AH460" s="134"/>
+      <c r="AI460" s="134"/>
+    </row>
+    <row r="461" spans="1:35" s="132" customFormat="1">
       <c r="A461"/>
       <c r="B461" s="97"/>
       <c r="C461" s="106"/>
@@ -14831,18 +14760,18 @@
       <c r="W461" s="106"/>
       <c r="X461" s="106"/>
       <c r="Y461" s="106"/>
-      <c r="Z461" s="136"/>
-      <c r="AA461" s="136"/>
-      <c r="AB461" s="136"/>
-      <c r="AC461" s="136"/>
-      <c r="AD461" s="136"/>
-      <c r="AE461" s="136"/>
-      <c r="AF461" s="136"/>
-      <c r="AG461" s="136"/>
-      <c r="AH461" s="136"/>
-      <c r="AI461" s="136"/>
-    </row>
-    <row r="462" spans="1:35" s="134" customFormat="1">
+      <c r="Z461" s="134"/>
+      <c r="AA461" s="134"/>
+      <c r="AB461" s="134"/>
+      <c r="AC461" s="134"/>
+      <c r="AD461" s="134"/>
+      <c r="AE461" s="134"/>
+      <c r="AF461" s="134"/>
+      <c r="AG461" s="134"/>
+      <c r="AH461" s="134"/>
+      <c r="AI461" s="134"/>
+    </row>
+    <row r="462" spans="1:35" s="132" customFormat="1">
       <c r="A462"/>
       <c r="B462" s="97"/>
       <c r="C462" s="106"/>
@@ -14868,18 +14797,18 @@
       <c r="W462" s="106"/>
       <c r="X462" s="106"/>
       <c r="Y462" s="106"/>
-      <c r="Z462" s="136"/>
-      <c r="AA462" s="136"/>
-      <c r="AB462" s="136"/>
-      <c r="AC462" s="136"/>
-      <c r="AD462" s="136"/>
-      <c r="AE462" s="136"/>
-      <c r="AF462" s="136"/>
-      <c r="AG462" s="136"/>
-      <c r="AH462" s="136"/>
-      <c r="AI462" s="136"/>
-    </row>
-    <row r="463" spans="1:35" s="134" customFormat="1">
+      <c r="Z462" s="134"/>
+      <c r="AA462" s="134"/>
+      <c r="AB462" s="134"/>
+      <c r="AC462" s="134"/>
+      <c r="AD462" s="134"/>
+      <c r="AE462" s="134"/>
+      <c r="AF462" s="134"/>
+      <c r="AG462" s="134"/>
+      <c r="AH462" s="134"/>
+      <c r="AI462" s="134"/>
+    </row>
+    <row r="463" spans="1:35" s="132" customFormat="1">
       <c r="A463"/>
       <c r="B463" s="97"/>
       <c r="C463" s="106"/>
@@ -14905,18 +14834,18 @@
       <c r="W463" s="106"/>
       <c r="X463" s="106"/>
       <c r="Y463" s="106"/>
-      <c r="Z463" s="136"/>
-      <c r="AA463" s="136"/>
-      <c r="AB463" s="136"/>
-      <c r="AC463" s="136"/>
-      <c r="AD463" s="136"/>
-      <c r="AE463" s="136"/>
-      <c r="AF463" s="136"/>
-      <c r="AG463" s="136"/>
-      <c r="AH463" s="136"/>
-      <c r="AI463" s="136"/>
-    </row>
-    <row r="464" spans="1:35" s="134" customFormat="1">
+      <c r="Z463" s="134"/>
+      <c r="AA463" s="134"/>
+      <c r="AB463" s="134"/>
+      <c r="AC463" s="134"/>
+      <c r="AD463" s="134"/>
+      <c r="AE463" s="134"/>
+      <c r="AF463" s="134"/>
+      <c r="AG463" s="134"/>
+      <c r="AH463" s="134"/>
+      <c r="AI463" s="134"/>
+    </row>
+    <row r="464" spans="1:35" s="132" customFormat="1">
       <c r="A464"/>
       <c r="B464" s="97"/>
       <c r="C464" s="106"/>
@@ -14942,18 +14871,18 @@
       <c r="W464" s="106"/>
       <c r="X464" s="106"/>
       <c r="Y464" s="106"/>
-      <c r="Z464" s="136"/>
-      <c r="AA464" s="136"/>
-      <c r="AB464" s="136"/>
-      <c r="AC464" s="136"/>
-      <c r="AD464" s="136"/>
-      <c r="AE464" s="136"/>
-      <c r="AF464" s="136"/>
-      <c r="AG464" s="136"/>
-      <c r="AH464" s="136"/>
-      <c r="AI464" s="136"/>
-    </row>
-    <row r="465" spans="1:35" s="134" customFormat="1">
+      <c r="Z464" s="134"/>
+      <c r="AA464" s="134"/>
+      <c r="AB464" s="134"/>
+      <c r="AC464" s="134"/>
+      <c r="AD464" s="134"/>
+      <c r="AE464" s="134"/>
+      <c r="AF464" s="134"/>
+      <c r="AG464" s="134"/>
+      <c r="AH464" s="134"/>
+      <c r="AI464" s="134"/>
+    </row>
+    <row r="465" spans="1:35" s="132" customFormat="1">
       <c r="A465"/>
       <c r="B465" s="97"/>
       <c r="C465" s="106"/>
@@ -14979,18 +14908,18 @@
       <c r="W465" s="106"/>
       <c r="X465" s="106"/>
       <c r="Y465" s="106"/>
-      <c r="Z465" s="136"/>
-      <c r="AA465" s="136"/>
-      <c r="AB465" s="136"/>
-      <c r="AC465" s="136"/>
-      <c r="AD465" s="136"/>
-      <c r="AE465" s="136"/>
-      <c r="AF465" s="136"/>
-      <c r="AG465" s="136"/>
-      <c r="AH465" s="136"/>
-      <c r="AI465" s="136"/>
-    </row>
-    <row r="466" spans="1:35" s="134" customFormat="1">
+      <c r="Z465" s="134"/>
+      <c r="AA465" s="134"/>
+      <c r="AB465" s="134"/>
+      <c r="AC465" s="134"/>
+      <c r="AD465" s="134"/>
+      <c r="AE465" s="134"/>
+      <c r="AF465" s="134"/>
+      <c r="AG465" s="134"/>
+      <c r="AH465" s="134"/>
+      <c r="AI465" s="134"/>
+    </row>
+    <row r="466" spans="1:35" s="132" customFormat="1">
       <c r="A466"/>
       <c r="B466" s="97"/>
       <c r="C466" s="106"/>
@@ -15016,18 +14945,18 @@
       <c r="W466" s="106"/>
       <c r="X466" s="106"/>
       <c r="Y466" s="106"/>
-      <c r="Z466" s="136"/>
-      <c r="AA466" s="136"/>
-      <c r="AB466" s="136"/>
-      <c r="AC466" s="136"/>
-      <c r="AD466" s="136"/>
-      <c r="AE466" s="136"/>
-      <c r="AF466" s="136"/>
-      <c r="AG466" s="136"/>
-      <c r="AH466" s="136"/>
-      <c r="AI466" s="136"/>
-    </row>
-    <row r="467" spans="1:35" s="134" customFormat="1">
+      <c r="Z466" s="134"/>
+      <c r="AA466" s="134"/>
+      <c r="AB466" s="134"/>
+      <c r="AC466" s="134"/>
+      <c r="AD466" s="134"/>
+      <c r="AE466" s="134"/>
+      <c r="AF466" s="134"/>
+      <c r="AG466" s="134"/>
+      <c r="AH466" s="134"/>
+      <c r="AI466" s="134"/>
+    </row>
+    <row r="467" spans="1:35" s="132" customFormat="1">
       <c r="A467"/>
       <c r="B467" s="97"/>
       <c r="C467" s="106"/>
@@ -15053,18 +14982,18 @@
       <c r="W467" s="106"/>
       <c r="X467" s="106"/>
       <c r="Y467" s="106"/>
-      <c r="Z467" s="136"/>
-      <c r="AA467" s="136"/>
-      <c r="AB467" s="136"/>
-      <c r="AC467" s="136"/>
-      <c r="AD467" s="136"/>
-      <c r="AE467" s="136"/>
-      <c r="AF467" s="136"/>
-      <c r="AG467" s="136"/>
-      <c r="AH467" s="136"/>
-      <c r="AI467" s="136"/>
-    </row>
-    <row r="468" spans="1:35" s="134" customFormat="1">
+      <c r="Z467" s="134"/>
+      <c r="AA467" s="134"/>
+      <c r="AB467" s="134"/>
+      <c r="AC467" s="134"/>
+      <c r="AD467" s="134"/>
+      <c r="AE467" s="134"/>
+      <c r="AF467" s="134"/>
+      <c r="AG467" s="134"/>
+      <c r="AH467" s="134"/>
+      <c r="AI467" s="134"/>
+    </row>
+    <row r="468" spans="1:35" s="132" customFormat="1">
       <c r="A468"/>
       <c r="B468" s="97"/>
       <c r="C468" s="106"/>
@@ -15090,18 +15019,18 @@
       <c r="W468" s="106"/>
       <c r="X468" s="106"/>
       <c r="Y468" s="106"/>
-      <c r="Z468" s="136"/>
-      <c r="AA468" s="136"/>
-      <c r="AB468" s="136"/>
-      <c r="AC468" s="136"/>
-      <c r="AD468" s="136"/>
-      <c r="AE468" s="136"/>
-      <c r="AF468" s="136"/>
-      <c r="AG468" s="136"/>
-      <c r="AH468" s="136"/>
-      <c r="AI468" s="136"/>
-    </row>
-    <row r="469" spans="1:35" s="134" customFormat="1">
+      <c r="Z468" s="134"/>
+      <c r="AA468" s="134"/>
+      <c r="AB468" s="134"/>
+      <c r="AC468" s="134"/>
+      <c r="AD468" s="134"/>
+      <c r="AE468" s="134"/>
+      <c r="AF468" s="134"/>
+      <c r="AG468" s="134"/>
+      <c r="AH468" s="134"/>
+      <c r="AI468" s="134"/>
+    </row>
+    <row r="469" spans="1:35" s="132" customFormat="1">
       <c r="A469"/>
       <c r="B469" s="97"/>
       <c r="C469" s="106"/>
@@ -15127,18 +15056,18 @@
       <c r="W469" s="106"/>
       <c r="X469" s="106"/>
       <c r="Y469" s="106"/>
-      <c r="Z469" s="136"/>
-      <c r="AA469" s="136"/>
-      <c r="AB469" s="136"/>
-      <c r="AC469" s="136"/>
-      <c r="AD469" s="136"/>
-      <c r="AE469" s="136"/>
-      <c r="AF469" s="136"/>
-      <c r="AG469" s="136"/>
-      <c r="AH469" s="136"/>
-      <c r="AI469" s="136"/>
-    </row>
-    <row r="470" spans="1:35" s="134" customFormat="1">
+      <c r="Z469" s="134"/>
+      <c r="AA469" s="134"/>
+      <c r="AB469" s="134"/>
+      <c r="AC469" s="134"/>
+      <c r="AD469" s="134"/>
+      <c r="AE469" s="134"/>
+      <c r="AF469" s="134"/>
+      <c r="AG469" s="134"/>
+      <c r="AH469" s="134"/>
+      <c r="AI469" s="134"/>
+    </row>
+    <row r="470" spans="1:35" s="132" customFormat="1">
       <c r="A470"/>
       <c r="B470" s="97"/>
       <c r="C470" s="106"/>
@@ -15164,18 +15093,18 @@
       <c r="W470" s="106"/>
       <c r="X470" s="106"/>
       <c r="Y470" s="106"/>
-      <c r="Z470" s="136"/>
-      <c r="AA470" s="136"/>
-      <c r="AB470" s="136"/>
-      <c r="AC470" s="136"/>
-      <c r="AD470" s="136"/>
-      <c r="AE470" s="136"/>
-      <c r="AF470" s="136"/>
-      <c r="AG470" s="136"/>
-      <c r="AH470" s="136"/>
-      <c r="AI470" s="136"/>
-    </row>
-    <row r="471" spans="1:35" s="134" customFormat="1">
+      <c r="Z470" s="134"/>
+      <c r="AA470" s="134"/>
+      <c r="AB470" s="134"/>
+      <c r="AC470" s="134"/>
+      <c r="AD470" s="134"/>
+      <c r="AE470" s="134"/>
+      <c r="AF470" s="134"/>
+      <c r="AG470" s="134"/>
+      <c r="AH470" s="134"/>
+      <c r="AI470" s="134"/>
+    </row>
+    <row r="471" spans="1:35" s="132" customFormat="1">
       <c r="A471"/>
       <c r="B471" s="97"/>
       <c r="C471" s="106"/>
@@ -15201,18 +15130,18 @@
       <c r="W471" s="106"/>
       <c r="X471" s="106"/>
       <c r="Y471" s="106"/>
-      <c r="Z471" s="136"/>
-      <c r="AA471" s="136"/>
-      <c r="AB471" s="136"/>
-      <c r="AC471" s="136"/>
-      <c r="AD471" s="136"/>
-      <c r="AE471" s="136"/>
-      <c r="AF471" s="136"/>
-      <c r="AG471" s="136"/>
-      <c r="AH471" s="136"/>
-      <c r="AI471" s="136"/>
-    </row>
-    <row r="472" spans="1:35" s="134" customFormat="1">
+      <c r="Z471" s="134"/>
+      <c r="AA471" s="134"/>
+      <c r="AB471" s="134"/>
+      <c r="AC471" s="134"/>
+      <c r="AD471" s="134"/>
+      <c r="AE471" s="134"/>
+      <c r="AF471" s="134"/>
+      <c r="AG471" s="134"/>
+      <c r="AH471" s="134"/>
+      <c r="AI471" s="134"/>
+    </row>
+    <row r="472" spans="1:35" s="132" customFormat="1">
       <c r="A472"/>
       <c r="B472" s="97"/>
       <c r="C472" s="106"/>
@@ -15238,18 +15167,18 @@
       <c r="W472" s="106"/>
       <c r="X472" s="106"/>
       <c r="Y472" s="106"/>
-      <c r="Z472" s="136"/>
-      <c r="AA472" s="136"/>
-      <c r="AB472" s="136"/>
-      <c r="AC472" s="136"/>
-      <c r="AD472" s="136"/>
-      <c r="AE472" s="136"/>
-      <c r="AF472" s="136"/>
-      <c r="AG472" s="136"/>
-      <c r="AH472" s="136"/>
-      <c r="AI472" s="136"/>
-    </row>
-    <row r="473" spans="1:35" s="134" customFormat="1">
+      <c r="Z472" s="134"/>
+      <c r="AA472" s="134"/>
+      <c r="AB472" s="134"/>
+      <c r="AC472" s="134"/>
+      <c r="AD472" s="134"/>
+      <c r="AE472" s="134"/>
+      <c r="AF472" s="134"/>
+      <c r="AG472" s="134"/>
+      <c r="AH472" s="134"/>
+      <c r="AI472" s="134"/>
+    </row>
+    <row r="473" spans="1:35" s="132" customFormat="1">
       <c r="A473"/>
       <c r="B473" s="97"/>
       <c r="C473" s="106"/>
@@ -15275,18 +15204,18 @@
       <c r="W473" s="106"/>
       <c r="X473" s="106"/>
       <c r="Y473" s="106"/>
-      <c r="Z473" s="136"/>
-      <c r="AA473" s="136"/>
-      <c r="AB473" s="136"/>
-      <c r="AC473" s="136"/>
-      <c r="AD473" s="136"/>
-      <c r="AE473" s="136"/>
-      <c r="AF473" s="136"/>
-      <c r="AG473" s="136"/>
-      <c r="AH473" s="136"/>
-      <c r="AI473" s="136"/>
-    </row>
-    <row r="474" spans="1:35" s="134" customFormat="1">
+      <c r="Z473" s="134"/>
+      <c r="AA473" s="134"/>
+      <c r="AB473" s="134"/>
+      <c r="AC473" s="134"/>
+      <c r="AD473" s="134"/>
+      <c r="AE473" s="134"/>
+      <c r="AF473" s="134"/>
+      <c r="AG473" s="134"/>
+      <c r="AH473" s="134"/>
+      <c r="AI473" s="134"/>
+    </row>
+    <row r="474" spans="1:35" s="132" customFormat="1">
       <c r="A474"/>
       <c r="B474" s="97"/>
       <c r="C474" s="106"/>
@@ -15312,18 +15241,18 @@
       <c r="W474" s="106"/>
       <c r="X474" s="106"/>
       <c r="Y474" s="106"/>
-      <c r="Z474" s="136"/>
-      <c r="AA474" s="136"/>
-      <c r="AB474" s="136"/>
-      <c r="AC474" s="136"/>
-      <c r="AD474" s="136"/>
-      <c r="AE474" s="136"/>
-      <c r="AF474" s="136"/>
-      <c r="AG474" s="136"/>
-      <c r="AH474" s="136"/>
-      <c r="AI474" s="136"/>
-    </row>
-    <row r="475" spans="1:35" s="134" customFormat="1">
+      <c r="Z474" s="134"/>
+      <c r="AA474" s="134"/>
+      <c r="AB474" s="134"/>
+      <c r="AC474" s="134"/>
+      <c r="AD474" s="134"/>
+      <c r="AE474" s="134"/>
+      <c r="AF474" s="134"/>
+      <c r="AG474" s="134"/>
+      <c r="AH474" s="134"/>
+      <c r="AI474" s="134"/>
+    </row>
+    <row r="475" spans="1:35" s="132" customFormat="1">
       <c r="A475"/>
       <c r="B475" s="97"/>
       <c r="C475" s="106"/>
@@ -15349,18 +15278,18 @@
       <c r="W475" s="106"/>
       <c r="X475" s="106"/>
       <c r="Y475" s="106"/>
-      <c r="Z475" s="136"/>
-      <c r="AA475" s="136"/>
-      <c r="AB475" s="136"/>
-      <c r="AC475" s="136"/>
-      <c r="AD475" s="136"/>
-      <c r="AE475" s="136"/>
-      <c r="AF475" s="136"/>
-      <c r="AG475" s="136"/>
-      <c r="AH475" s="136"/>
-      <c r="AI475" s="136"/>
-    </row>
-    <row r="476" spans="1:35" s="134" customFormat="1">
+      <c r="Z475" s="134"/>
+      <c r="AA475" s="134"/>
+      <c r="AB475" s="134"/>
+      <c r="AC475" s="134"/>
+      <c r="AD475" s="134"/>
+      <c r="AE475" s="134"/>
+      <c r="AF475" s="134"/>
+      <c r="AG475" s="134"/>
+      <c r="AH475" s="134"/>
+      <c r="AI475" s="134"/>
+    </row>
+    <row r="476" spans="1:35" s="132" customFormat="1">
       <c r="A476"/>
       <c r="B476" s="97"/>
       <c r="C476" s="106"/>
@@ -15386,18 +15315,18 @@
       <c r="W476" s="106"/>
       <c r="X476" s="106"/>
       <c r="Y476" s="106"/>
-      <c r="Z476" s="136"/>
-      <c r="AA476" s="136"/>
-      <c r="AB476" s="136"/>
-      <c r="AC476" s="136"/>
-      <c r="AD476" s="136"/>
-      <c r="AE476" s="136"/>
-      <c r="AF476" s="136"/>
-      <c r="AG476" s="136"/>
-      <c r="AH476" s="136"/>
-      <c r="AI476" s="136"/>
-    </row>
-    <row r="477" spans="1:35" s="134" customFormat="1">
+      <c r="Z476" s="134"/>
+      <c r="AA476" s="134"/>
+      <c r="AB476" s="134"/>
+      <c r="AC476" s="134"/>
+      <c r="AD476" s="134"/>
+      <c r="AE476" s="134"/>
+      <c r="AF476" s="134"/>
+      <c r="AG476" s="134"/>
+      <c r="AH476" s="134"/>
+      <c r="AI476" s="134"/>
+    </row>
+    <row r="477" spans="1:35" s="132" customFormat="1">
       <c r="A477"/>
       <c r="B477" s="97"/>
       <c r="C477" s="106"/>
@@ -15423,18 +15352,18 @@
       <c r="W477" s="106"/>
       <c r="X477" s="106"/>
       <c r="Y477" s="106"/>
-      <c r="Z477" s="136"/>
-      <c r="AA477" s="136"/>
-      <c r="AB477" s="136"/>
-      <c r="AC477" s="136"/>
-      <c r="AD477" s="136"/>
-      <c r="AE477" s="136"/>
-      <c r="AF477" s="136"/>
-      <c r="AG477" s="136"/>
-      <c r="AH477" s="136"/>
-      <c r="AI477" s="136"/>
-    </row>
-    <row r="478" spans="1:35" s="134" customFormat="1">
+      <c r="Z477" s="134"/>
+      <c r="AA477" s="134"/>
+      <c r="AB477" s="134"/>
+      <c r="AC477" s="134"/>
+      <c r="AD477" s="134"/>
+      <c r="AE477" s="134"/>
+      <c r="AF477" s="134"/>
+      <c r="AG477" s="134"/>
+      <c r="AH477" s="134"/>
+      <c r="AI477" s="134"/>
+    </row>
+    <row r="478" spans="1:35" s="132" customFormat="1">
       <c r="A478"/>
       <c r="B478" s="97"/>
       <c r="C478" s="106"/>
@@ -15460,18 +15389,18 @@
       <c r="W478" s="106"/>
       <c r="X478" s="106"/>
       <c r="Y478" s="106"/>
-      <c r="Z478" s="136"/>
-      <c r="AA478" s="136"/>
-      <c r="AB478" s="136"/>
-      <c r="AC478" s="136"/>
-      <c r="AD478" s="136"/>
-      <c r="AE478" s="136"/>
-      <c r="AF478" s="136"/>
-      <c r="AG478" s="136"/>
-      <c r="AH478" s="136"/>
-      <c r="AI478" s="136"/>
-    </row>
-    <row r="479" spans="1:35" s="134" customFormat="1">
+      <c r="Z478" s="134"/>
+      <c r="AA478" s="134"/>
+      <c r="AB478" s="134"/>
+      <c r="AC478" s="134"/>
+      <c r="AD478" s="134"/>
+      <c r="AE478" s="134"/>
+      <c r="AF478" s="134"/>
+      <c r="AG478" s="134"/>
+      <c r="AH478" s="134"/>
+      <c r="AI478" s="134"/>
+    </row>
+    <row r="479" spans="1:35" s="132" customFormat="1">
       <c r="A479"/>
       <c r="B479" s="97"/>
       <c r="C479" s="106"/>
@@ -15497,18 +15426,18 @@
       <c r="W479" s="106"/>
       <c r="X479" s="106"/>
       <c r="Y479" s="106"/>
-      <c r="Z479" s="136"/>
-      <c r="AA479" s="136"/>
-      <c r="AB479" s="136"/>
-      <c r="AC479" s="136"/>
-      <c r="AD479" s="136"/>
-      <c r="AE479" s="136"/>
-      <c r="AF479" s="136"/>
-      <c r="AG479" s="136"/>
-      <c r="AH479" s="136"/>
-      <c r="AI479" s="136"/>
-    </row>
-    <row r="480" spans="1:35" s="134" customFormat="1">
+      <c r="Z479" s="134"/>
+      <c r="AA479" s="134"/>
+      <c r="AB479" s="134"/>
+      <c r="AC479" s="134"/>
+      <c r="AD479" s="134"/>
+      <c r="AE479" s="134"/>
+      <c r="AF479" s="134"/>
+      <c r="AG479" s="134"/>
+      <c r="AH479" s="134"/>
+      <c r="AI479" s="134"/>
+    </row>
+    <row r="480" spans="1:35" s="132" customFormat="1">
       <c r="A480"/>
       <c r="B480" s="97"/>
       <c r="C480" s="106"/>
@@ -15534,18 +15463,18 @@
       <c r="W480" s="106"/>
       <c r="X480" s="106"/>
       <c r="Y480" s="106"/>
-      <c r="Z480" s="136"/>
-      <c r="AA480" s="136"/>
-      <c r="AB480" s="136"/>
-      <c r="AC480" s="136"/>
-      <c r="AD480" s="136"/>
-      <c r="AE480" s="136"/>
-      <c r="AF480" s="136"/>
-      <c r="AG480" s="136"/>
-      <c r="AH480" s="136"/>
-      <c r="AI480" s="136"/>
-    </row>
-    <row r="481" spans="1:35" s="134" customFormat="1">
+      <c r="Z480" s="134"/>
+      <c r="AA480" s="134"/>
+      <c r="AB480" s="134"/>
+      <c r="AC480" s="134"/>
+      <c r="AD480" s="134"/>
+      <c r="AE480" s="134"/>
+      <c r="AF480" s="134"/>
+      <c r="AG480" s="134"/>
+      <c r="AH480" s="134"/>
+      <c r="AI480" s="134"/>
+    </row>
+    <row r="481" spans="1:35" s="132" customFormat="1">
       <c r="A481"/>
       <c r="B481" s="97"/>
       <c r="C481" s="106"/>
@@ -15571,18 +15500,18 @@
       <c r="W481" s="106"/>
       <c r="X481" s="106"/>
       <c r="Y481" s="106"/>
-      <c r="Z481" s="136"/>
-      <c r="AA481" s="136"/>
-      <c r="AB481" s="136"/>
-      <c r="AC481" s="136"/>
-      <c r="AD481" s="136"/>
-      <c r="AE481" s="136"/>
-      <c r="AF481" s="136"/>
-      <c r="AG481" s="136"/>
-      <c r="AH481" s="136"/>
-      <c r="AI481" s="136"/>
-    </row>
-    <row r="482" spans="1:35" s="134" customFormat="1">
+      <c r="Z481" s="134"/>
+      <c r="AA481" s="134"/>
+      <c r="AB481" s="134"/>
+      <c r="AC481" s="134"/>
+      <c r="AD481" s="134"/>
+      <c r="AE481" s="134"/>
+      <c r="AF481" s="134"/>
+      <c r="AG481" s="134"/>
+      <c r="AH481" s="134"/>
+      <c r="AI481" s="134"/>
+    </row>
+    <row r="482" spans="1:35" s="132" customFormat="1">
       <c r="A482"/>
       <c r="B482" s="97"/>
       <c r="C482" s="106"/>
@@ -15608,18 +15537,18 @@
       <c r="W482" s="106"/>
       <c r="X482" s="106"/>
       <c r="Y482" s="106"/>
-      <c r="Z482" s="136"/>
-      <c r="AA482" s="136"/>
-      <c r="AB482" s="136"/>
-      <c r="AC482" s="136"/>
-      <c r="AD482" s="136"/>
-      <c r="AE482" s="136"/>
-      <c r="AF482" s="136"/>
-      <c r="AG482" s="136"/>
-      <c r="AH482" s="136"/>
-      <c r="AI482" s="136"/>
-    </row>
-    <row r="483" spans="1:35" s="134" customFormat="1">
+      <c r="Z482" s="134"/>
+      <c r="AA482" s="134"/>
+      <c r="AB482" s="134"/>
+      <c r="AC482" s="134"/>
+      <c r="AD482" s="134"/>
+      <c r="AE482" s="134"/>
+      <c r="AF482" s="134"/>
+      <c r="AG482" s="134"/>
+      <c r="AH482" s="134"/>
+      <c r="AI482" s="134"/>
+    </row>
+    <row r="483" spans="1:35" s="132" customFormat="1">
       <c r="A483"/>
       <c r="B483" s="97"/>
       <c r="C483" s="106"/>
@@ -15641,22 +15570,22 @@
       <c r="S483" s="106"/>
       <c r="T483" s="106"/>
       <c r="U483" s="106"/>
-      <c r="V483" s="136"/>
-      <c r="W483" s="136"/>
-      <c r="X483" s="136"/>
-      <c r="Y483" s="136"/>
-      <c r="Z483" s="136"/>
-      <c r="AA483" s="136"/>
-      <c r="AB483" s="136"/>
-      <c r="AC483" s="136"/>
-      <c r="AD483" s="136"/>
-      <c r="AE483" s="136"/>
-      <c r="AF483" s="136"/>
-      <c r="AG483" s="136"/>
-      <c r="AH483" s="136"/>
-      <c r="AI483" s="136"/>
-    </row>
-    <row r="484" spans="1:35" s="134" customFormat="1">
+      <c r="V483" s="134"/>
+      <c r="W483" s="134"/>
+      <c r="X483" s="134"/>
+      <c r="Y483" s="134"/>
+      <c r="Z483" s="134"/>
+      <c r="AA483" s="134"/>
+      <c r="AB483" s="134"/>
+      <c r="AC483" s="134"/>
+      <c r="AD483" s="134"/>
+      <c r="AE483" s="134"/>
+      <c r="AF483" s="134"/>
+      <c r="AG483" s="134"/>
+      <c r="AH483" s="134"/>
+      <c r="AI483" s="134"/>
+    </row>
+    <row r="484" spans="1:35" s="132" customFormat="1">
       <c r="A484"/>
       <c r="B484" s="97"/>
       <c r="C484" s="106"/>
@@ -15678,22 +15607,22 @@
       <c r="S484" s="106"/>
       <c r="T484" s="106"/>
       <c r="U484" s="106"/>
-      <c r="V484" s="136"/>
-      <c r="W484" s="136"/>
-      <c r="X484" s="136"/>
-      <c r="Y484" s="136"/>
-      <c r="Z484" s="136"/>
-      <c r="AA484" s="136"/>
-      <c r="AB484" s="136"/>
-      <c r="AC484" s="136"/>
-      <c r="AD484" s="136"/>
-      <c r="AE484" s="136"/>
-      <c r="AF484" s="136"/>
-      <c r="AG484" s="136"/>
-      <c r="AH484" s="136"/>
-      <c r="AI484" s="136"/>
-    </row>
-    <row r="485" spans="1:35" s="134" customFormat="1">
+      <c r="V484" s="134"/>
+      <c r="W484" s="134"/>
+      <c r="X484" s="134"/>
+      <c r="Y484" s="134"/>
+      <c r="Z484" s="134"/>
+      <c r="AA484" s="134"/>
+      <c r="AB484" s="134"/>
+      <c r="AC484" s="134"/>
+      <c r="AD484" s="134"/>
+      <c r="AE484" s="134"/>
+      <c r="AF484" s="134"/>
+      <c r="AG484" s="134"/>
+      <c r="AH484" s="134"/>
+      <c r="AI484" s="134"/>
+    </row>
+    <row r="485" spans="1:35" s="132" customFormat="1">
       <c r="A485"/>
       <c r="B485" s="97"/>
       <c r="C485" s="106"/>
@@ -15715,22 +15644,22 @@
       <c r="S485" s="106"/>
       <c r="T485" s="106"/>
       <c r="U485" s="106"/>
-      <c r="V485" s="136"/>
-      <c r="W485" s="136"/>
-      <c r="X485" s="136"/>
-      <c r="Y485" s="136"/>
-      <c r="Z485" s="136"/>
-      <c r="AA485" s="136"/>
-      <c r="AB485" s="136"/>
-      <c r="AC485" s="136"/>
-      <c r="AD485" s="136"/>
-      <c r="AE485" s="136"/>
-      <c r="AF485" s="136"/>
-      <c r="AG485" s="136"/>
-      <c r="AH485" s="136"/>
-      <c r="AI485" s="136"/>
-    </row>
-    <row r="486" spans="1:35" s="134" customFormat="1">
+      <c r="V485" s="134"/>
+      <c r="W485" s="134"/>
+      <c r="X485" s="134"/>
+      <c r="Y485" s="134"/>
+      <c r="Z485" s="134"/>
+      <c r="AA485" s="134"/>
+      <c r="AB485" s="134"/>
+      <c r="AC485" s="134"/>
+      <c r="AD485" s="134"/>
+      <c r="AE485" s="134"/>
+      <c r="AF485" s="134"/>
+      <c r="AG485" s="134"/>
+      <c r="AH485" s="134"/>
+      <c r="AI485" s="134"/>
+    </row>
+    <row r="486" spans="1:35" s="132" customFormat="1">
       <c r="A486"/>
       <c r="B486" s="97"/>
       <c r="C486" s="106"/>
@@ -15752,22 +15681,22 @@
       <c r="S486" s="106"/>
       <c r="T486" s="106"/>
       <c r="U486" s="106"/>
-      <c r="V486" s="136"/>
-      <c r="W486" s="136"/>
-      <c r="X486" s="136"/>
-      <c r="Y486" s="136"/>
-      <c r="Z486" s="136"/>
-      <c r="AA486" s="136"/>
-      <c r="AB486" s="136"/>
-      <c r="AC486" s="136"/>
-      <c r="AD486" s="136"/>
-      <c r="AE486" s="136"/>
-      <c r="AF486" s="136"/>
-      <c r="AG486" s="136"/>
-      <c r="AH486" s="136"/>
-      <c r="AI486" s="136"/>
-    </row>
-    <row r="487" spans="1:35" s="134" customFormat="1">
+      <c r="V486" s="134"/>
+      <c r="W486" s="134"/>
+      <c r="X486" s="134"/>
+      <c r="Y486" s="134"/>
+      <c r="Z486" s="134"/>
+      <c r="AA486" s="134"/>
+      <c r="AB486" s="134"/>
+      <c r="AC486" s="134"/>
+      <c r="AD486" s="134"/>
+      <c r="AE486" s="134"/>
+      <c r="AF486" s="134"/>
+      <c r="AG486" s="134"/>
+      <c r="AH486" s="134"/>
+      <c r="AI486" s="134"/>
+    </row>
+    <row r="487" spans="1:35" s="132" customFormat="1">
       <c r="A487"/>
       <c r="B487" s="97"/>
       <c r="C487" s="106"/>
@@ -15789,22 +15718,22 @@
       <c r="S487" s="106"/>
       <c r="T487" s="106"/>
       <c r="U487" s="106"/>
-      <c r="V487" s="136"/>
-      <c r="W487" s="136"/>
-      <c r="X487" s="136"/>
-      <c r="Y487" s="136"/>
-      <c r="Z487" s="136"/>
-      <c r="AA487" s="136"/>
-      <c r="AB487" s="136"/>
-      <c r="AC487" s="136"/>
-      <c r="AD487" s="136"/>
-      <c r="AE487" s="136"/>
-      <c r="AF487" s="136"/>
-      <c r="AG487" s="136"/>
-      <c r="AH487" s="136"/>
-      <c r="AI487" s="136"/>
-    </row>
-    <row r="488" spans="1:35" s="134" customFormat="1">
+      <c r="V487" s="134"/>
+      <c r="W487" s="134"/>
+      <c r="X487" s="134"/>
+      <c r="Y487" s="134"/>
+      <c r="Z487" s="134"/>
+      <c r="AA487" s="134"/>
+      <c r="AB487" s="134"/>
+      <c r="AC487" s="134"/>
+      <c r="AD487" s="134"/>
+      <c r="AE487" s="134"/>
+      <c r="AF487" s="134"/>
+      <c r="AG487" s="134"/>
+      <c r="AH487" s="134"/>
+      <c r="AI487" s="134"/>
+    </row>
+    <row r="488" spans="1:35" s="132" customFormat="1">
       <c r="A488"/>
       <c r="B488" s="97"/>
       <c r="C488" s="106"/>
@@ -15826,22 +15755,22 @@
       <c r="S488" s="106"/>
       <c r="T488" s="106"/>
       <c r="U488" s="106"/>
-      <c r="V488" s="136"/>
-      <c r="W488" s="136"/>
-      <c r="X488" s="136"/>
-      <c r="Y488" s="136"/>
-      <c r="Z488" s="136"/>
-      <c r="AA488" s="136"/>
-      <c r="AB488" s="136"/>
-      <c r="AC488" s="136"/>
-      <c r="AD488" s="136"/>
-      <c r="AE488" s="136"/>
-      <c r="AF488" s="136"/>
-      <c r="AG488" s="136"/>
-      <c r="AH488" s="136"/>
-      <c r="AI488" s="136"/>
-    </row>
-    <row r="489" spans="1:35" s="134" customFormat="1">
+      <c r="V488" s="134"/>
+      <c r="W488" s="134"/>
+      <c r="X488" s="134"/>
+      <c r="Y488" s="134"/>
+      <c r="Z488" s="134"/>
+      <c r="AA488" s="134"/>
+      <c r="AB488" s="134"/>
+      <c r="AC488" s="134"/>
+      <c r="AD488" s="134"/>
+      <c r="AE488" s="134"/>
+      <c r="AF488" s="134"/>
+      <c r="AG488" s="134"/>
+      <c r="AH488" s="134"/>
+      <c r="AI488" s="134"/>
+    </row>
+    <row r="489" spans="1:35" s="132" customFormat="1">
       <c r="A489"/>
       <c r="B489" s="97"/>
       <c r="C489" s="106"/>
@@ -15863,22 +15792,22 @@
       <c r="S489" s="106"/>
       <c r="T489" s="106"/>
       <c r="U489" s="106"/>
-      <c r="V489" s="136"/>
-      <c r="W489" s="136"/>
-      <c r="X489" s="136"/>
-      <c r="Y489" s="136"/>
-      <c r="Z489" s="136"/>
-      <c r="AA489" s="136"/>
-      <c r="AB489" s="136"/>
-      <c r="AC489" s="136"/>
-      <c r="AD489" s="136"/>
-      <c r="AE489" s="136"/>
-      <c r="AF489" s="136"/>
-      <c r="AG489" s="136"/>
-      <c r="AH489" s="136"/>
-      <c r="AI489" s="136"/>
-    </row>
-    <row r="490" spans="1:35" s="134" customFormat="1">
+      <c r="V489" s="134"/>
+      <c r="W489" s="134"/>
+      <c r="X489" s="134"/>
+      <c r="Y489" s="134"/>
+      <c r="Z489" s="134"/>
+      <c r="AA489" s="134"/>
+      <c r="AB489" s="134"/>
+      <c r="AC489" s="134"/>
+      <c r="AD489" s="134"/>
+      <c r="AE489" s="134"/>
+      <c r="AF489" s="134"/>
+      <c r="AG489" s="134"/>
+      <c r="AH489" s="134"/>
+      <c r="AI489" s="134"/>
+    </row>
+    <row r="490" spans="1:35" s="132" customFormat="1">
       <c r="A490"/>
       <c r="B490" s="97"/>
       <c r="C490" s="106"/>
@@ -15900,22 +15829,22 @@
       <c r="S490" s="106"/>
       <c r="T490" s="106"/>
       <c r="U490" s="106"/>
-      <c r="V490" s="136"/>
-      <c r="W490" s="136"/>
-      <c r="X490" s="136"/>
-      <c r="Y490" s="136"/>
-      <c r="Z490" s="136"/>
-      <c r="AA490" s="136"/>
-      <c r="AB490" s="136"/>
-      <c r="AC490" s="136"/>
-      <c r="AD490" s="136"/>
-      <c r="AE490" s="136"/>
-      <c r="AF490" s="136"/>
-      <c r="AG490" s="136"/>
-      <c r="AH490" s="136"/>
-      <c r="AI490" s="136"/>
-    </row>
-    <row r="491" spans="1:35" s="134" customFormat="1">
+      <c r="V490" s="134"/>
+      <c r="W490" s="134"/>
+      <c r="X490" s="134"/>
+      <c r="Y490" s="134"/>
+      <c r="Z490" s="134"/>
+      <c r="AA490" s="134"/>
+      <c r="AB490" s="134"/>
+      <c r="AC490" s="134"/>
+      <c r="AD490" s="134"/>
+      <c r="AE490" s="134"/>
+      <c r="AF490" s="134"/>
+      <c r="AG490" s="134"/>
+      <c r="AH490" s="134"/>
+      <c r="AI490" s="134"/>
+    </row>
+    <row r="491" spans="1:35" s="132" customFormat="1">
       <c r="A491"/>
       <c r="B491" s="97"/>
       <c r="C491" s="106"/>
@@ -15937,22 +15866,22 @@
       <c r="S491" s="106"/>
       <c r="T491" s="106"/>
       <c r="U491" s="106"/>
-      <c r="V491" s="136"/>
-      <c r="W491" s="136"/>
-      <c r="X491" s="136"/>
-      <c r="Y491" s="136"/>
-      <c r="Z491" s="136"/>
-      <c r="AA491" s="136"/>
-      <c r="AB491" s="136"/>
-      <c r="AC491" s="136"/>
-      <c r="AD491" s="136"/>
-      <c r="AE491" s="136"/>
-      <c r="AF491" s="136"/>
-      <c r="AG491" s="136"/>
-      <c r="AH491" s="136"/>
-      <c r="AI491" s="136"/>
-    </row>
-    <row r="492" spans="1:35" s="134" customFormat="1">
+      <c r="V491" s="134"/>
+      <c r="W491" s="134"/>
+      <c r="X491" s="134"/>
+      <c r="Y491" s="134"/>
+      <c r="Z491" s="134"/>
+      <c r="AA491" s="134"/>
+      <c r="AB491" s="134"/>
+      <c r="AC491" s="134"/>
+      <c r="AD491" s="134"/>
+      <c r="AE491" s="134"/>
+      <c r="AF491" s="134"/>
+      <c r="AG491" s="134"/>
+      <c r="AH491" s="134"/>
+      <c r="AI491" s="134"/>
+    </row>
+    <row r="492" spans="1:35" s="132" customFormat="1">
       <c r="A492"/>
       <c r="B492" s="97"/>
       <c r="C492" s="106"/>
@@ -15974,22 +15903,22 @@
       <c r="S492" s="106"/>
       <c r="T492" s="106"/>
       <c r="U492" s="106"/>
-      <c r="V492" s="136"/>
-      <c r="W492" s="136"/>
-      <c r="X492" s="136"/>
-      <c r="Y492" s="136"/>
-      <c r="Z492" s="136"/>
-      <c r="AA492" s="136"/>
-      <c r="AB492" s="136"/>
-      <c r="AC492" s="136"/>
-      <c r="AD492" s="136"/>
-      <c r="AE492" s="136"/>
-      <c r="AF492" s="136"/>
-      <c r="AG492" s="136"/>
-      <c r="AH492" s="136"/>
-      <c r="AI492" s="136"/>
-    </row>
-    <row r="493" spans="1:35" s="134" customFormat="1">
+      <c r="V492" s="134"/>
+      <c r="W492" s="134"/>
+      <c r="X492" s="134"/>
+      <c r="Y492" s="134"/>
+      <c r="Z492" s="134"/>
+      <c r="AA492" s="134"/>
+      <c r="AB492" s="134"/>
+      <c r="AC492" s="134"/>
+      <c r="AD492" s="134"/>
+      <c r="AE492" s="134"/>
+      <c r="AF492" s="134"/>
+      <c r="AG492" s="134"/>
+      <c r="AH492" s="134"/>
+      <c r="AI492" s="134"/>
+    </row>
+    <row r="493" spans="1:35" s="132" customFormat="1">
       <c r="A493"/>
       <c r="B493" s="97"/>
       <c r="C493" s="106"/>
@@ -16011,22 +15940,22 @@
       <c r="S493" s="106"/>
       <c r="T493" s="106"/>
       <c r="U493" s="106"/>
-      <c r="V493" s="136"/>
-      <c r="W493" s="136"/>
-      <c r="X493" s="136"/>
-      <c r="Y493" s="136"/>
-      <c r="Z493" s="136"/>
-      <c r="AA493" s="136"/>
-      <c r="AB493" s="136"/>
-      <c r="AC493" s="136"/>
-      <c r="AD493" s="136"/>
-      <c r="AE493" s="136"/>
-      <c r="AF493" s="136"/>
-      <c r="AG493" s="136"/>
-      <c r="AH493" s="136"/>
-      <c r="AI493" s="136"/>
-    </row>
-    <row r="494" spans="1:35" s="134" customFormat="1">
+      <c r="V493" s="134"/>
+      <c r="W493" s="134"/>
+      <c r="X493" s="134"/>
+      <c r="Y493" s="134"/>
+      <c r="Z493" s="134"/>
+      <c r="AA493" s="134"/>
+      <c r="AB493" s="134"/>
+      <c r="AC493" s="134"/>
+      <c r="AD493" s="134"/>
+      <c r="AE493" s="134"/>
+      <c r="AF493" s="134"/>
+      <c r="AG493" s="134"/>
+      <c r="AH493" s="134"/>
+      <c r="AI493" s="134"/>
+    </row>
+    <row r="494" spans="1:35" s="132" customFormat="1">
       <c r="A494"/>
       <c r="B494" s="97"/>
       <c r="C494" s="106"/>
@@ -16048,22 +15977,22 @@
       <c r="S494" s="106"/>
       <c r="T494" s="106"/>
       <c r="U494" s="106"/>
-      <c r="V494" s="136"/>
-      <c r="W494" s="136"/>
-      <c r="X494" s="136"/>
-      <c r="Y494" s="136"/>
-      <c r="Z494" s="136"/>
-      <c r="AA494" s="136"/>
-      <c r="AB494" s="136"/>
-      <c r="AC494" s="136"/>
-      <c r="AD494" s="136"/>
-      <c r="AE494" s="136"/>
-      <c r="AF494" s="136"/>
-      <c r="AG494" s="136"/>
-      <c r="AH494" s="136"/>
-      <c r="AI494" s="136"/>
-    </row>
-    <row r="495" spans="1:35" s="134" customFormat="1">
+      <c r="V494" s="134"/>
+      <c r="W494" s="134"/>
+      <c r="X494" s="134"/>
+      <c r="Y494" s="134"/>
+      <c r="Z494" s="134"/>
+      <c r="AA494" s="134"/>
+      <c r="AB494" s="134"/>
+      <c r="AC494" s="134"/>
+      <c r="AD494" s="134"/>
+      <c r="AE494" s="134"/>
+      <c r="AF494" s="134"/>
+      <c r="AG494" s="134"/>
+      <c r="AH494" s="134"/>
+      <c r="AI494" s="134"/>
+    </row>
+    <row r="495" spans="1:35" s="132" customFormat="1">
       <c r="A495"/>
       <c r="B495" s="97"/>
       <c r="C495" s="106"/>
@@ -16085,22 +16014,22 @@
       <c r="S495" s="106"/>
       <c r="T495" s="106"/>
       <c r="U495" s="106"/>
-      <c r="V495" s="136"/>
-      <c r="W495" s="136"/>
-      <c r="X495" s="136"/>
-      <c r="Y495" s="136"/>
-      <c r="Z495" s="136"/>
-      <c r="AA495" s="136"/>
-      <c r="AB495" s="136"/>
-      <c r="AC495" s="136"/>
-      <c r="AD495" s="136"/>
-      <c r="AE495" s="136"/>
-      <c r="AF495" s="136"/>
-      <c r="AG495" s="136"/>
-      <c r="AH495" s="136"/>
-      <c r="AI495" s="136"/>
-    </row>
-    <row r="496" spans="1:35" s="134" customFormat="1">
+      <c r="V495" s="134"/>
+      <c r="W495" s="134"/>
+      <c r="X495" s="134"/>
+      <c r="Y495" s="134"/>
+      <c r="Z495" s="134"/>
+      <c r="AA495" s="134"/>
+      <c r="AB495" s="134"/>
+      <c r="AC495" s="134"/>
+      <c r="AD495" s="134"/>
+      <c r="AE495" s="134"/>
+      <c r="AF495" s="134"/>
+      <c r="AG495" s="134"/>
+      <c r="AH495" s="134"/>
+      <c r="AI495" s="134"/>
+    </row>
+    <row r="496" spans="1:35" s="132" customFormat="1">
       <c r="A496"/>
       <c r="B496" s="97"/>
       <c r="C496" s="106"/>
@@ -16122,22 +16051,22 @@
       <c r="S496" s="106"/>
       <c r="T496" s="106"/>
       <c r="U496" s="106"/>
-      <c r="V496" s="136"/>
-      <c r="W496" s="136"/>
-      <c r="X496" s="136"/>
-      <c r="Y496" s="136"/>
-      <c r="Z496" s="136"/>
-      <c r="AA496" s="136"/>
-      <c r="AB496" s="136"/>
-      <c r="AC496" s="136"/>
-      <c r="AD496" s="136"/>
-      <c r="AE496" s="136"/>
-      <c r="AF496" s="136"/>
-      <c r="AG496" s="136"/>
-      <c r="AH496" s="136"/>
-      <c r="AI496" s="136"/>
-    </row>
-    <row r="497" spans="1:35" s="134" customFormat="1">
+      <c r="V496" s="134"/>
+      <c r="W496" s="134"/>
+      <c r="X496" s="134"/>
+      <c r="Y496" s="134"/>
+      <c r="Z496" s="134"/>
+      <c r="AA496" s="134"/>
+      <c r="AB496" s="134"/>
+      <c r="AC496" s="134"/>
+      <c r="AD496" s="134"/>
+      <c r="AE496" s="134"/>
+      <c r="AF496" s="134"/>
+      <c r="AG496" s="134"/>
+      <c r="AH496" s="134"/>
+      <c r="AI496" s="134"/>
+    </row>
+    <row r="497" spans="1:35" s="132" customFormat="1">
       <c r="A497"/>
       <c r="B497" s="97"/>
       <c r="C497" s="106"/>
@@ -16159,22 +16088,22 @@
       <c r="S497" s="106"/>
       <c r="T497" s="106"/>
       <c r="U497" s="106"/>
-      <c r="V497" s="136"/>
-      <c r="W497" s="136"/>
-      <c r="X497" s="136"/>
-      <c r="Y497" s="136"/>
-      <c r="Z497" s="136"/>
-      <c r="AA497" s="136"/>
-      <c r="AB497" s="136"/>
-      <c r="AC497" s="136"/>
-      <c r="AD497" s="136"/>
-      <c r="AE497" s="136"/>
-      <c r="AF497" s="136"/>
-      <c r="AG497" s="136"/>
-      <c r="AH497" s="136"/>
-      <c r="AI497" s="136"/>
-    </row>
-    <row r="498" spans="1:35" s="134" customFormat="1">
+      <c r="V497" s="134"/>
+      <c r="W497" s="134"/>
+      <c r="X497" s="134"/>
+      <c r="Y497" s="134"/>
+      <c r="Z497" s="134"/>
+      <c r="AA497" s="134"/>
+      <c r="AB497" s="134"/>
+      <c r="AC497" s="134"/>
+      <c r="AD497" s="134"/>
+      <c r="AE497" s="134"/>
+      <c r="AF497" s="134"/>
+      <c r="AG497" s="134"/>
+      <c r="AH497" s="134"/>
+      <c r="AI497" s="134"/>
+    </row>
+    <row r="498" spans="1:35" s="132" customFormat="1">
       <c r="A498"/>
       <c r="B498" s="97"/>
       <c r="C498" s="106"/>
@@ -16196,22 +16125,22 @@
       <c r="S498" s="106"/>
       <c r="T498" s="106"/>
       <c r="U498" s="106"/>
-      <c r="V498" s="136"/>
-      <c r="W498" s="136"/>
-      <c r="X498" s="136"/>
-      <c r="Y498" s="136"/>
-      <c r="Z498" s="136"/>
-      <c r="AA498" s="136"/>
-      <c r="AB498" s="136"/>
-      <c r="AC498" s="136"/>
-      <c r="AD498" s="136"/>
-      <c r="AE498" s="136"/>
-      <c r="AF498" s="136"/>
-      <c r="AG498" s="136"/>
-      <c r="AH498" s="136"/>
-      <c r="AI498" s="136"/>
-    </row>
-    <row r="499" spans="1:35" s="134" customFormat="1">
+      <c r="V498" s="134"/>
+      <c r="W498" s="134"/>
+      <c r="X498" s="134"/>
+      <c r="Y498" s="134"/>
+      <c r="Z498" s="134"/>
+      <c r="AA498" s="134"/>
+      <c r="AB498" s="134"/>
+      <c r="AC498" s="134"/>
+      <c r="AD498" s="134"/>
+      <c r="AE498" s="134"/>
+      <c r="AF498" s="134"/>
+      <c r="AG498" s="134"/>
+      <c r="AH498" s="134"/>
+      <c r="AI498" s="134"/>
+    </row>
+    <row r="499" spans="1:35" s="132" customFormat="1">
       <c r="A499"/>
       <c r="B499" s="97"/>
       <c r="C499" s="106"/>
@@ -16233,22 +16162,22 @@
       <c r="S499" s="106"/>
       <c r="T499" s="106"/>
       <c r="U499" s="106"/>
-      <c r="V499" s="136"/>
-      <c r="W499" s="136"/>
-      <c r="X499" s="136"/>
-      <c r="Y499" s="136"/>
-      <c r="Z499" s="136"/>
-      <c r="AA499" s="136"/>
-      <c r="AB499" s="136"/>
-      <c r="AC499" s="136"/>
-      <c r="AD499" s="136"/>
-      <c r="AE499" s="136"/>
-      <c r="AF499" s="136"/>
-      <c r="AG499" s="136"/>
-      <c r="AH499" s="136"/>
-      <c r="AI499" s="136"/>
-    </row>
-    <row r="500" spans="1:35" s="134" customFormat="1">
+      <c r="V499" s="134"/>
+      <c r="W499" s="134"/>
+      <c r="X499" s="134"/>
+      <c r="Y499" s="134"/>
+      <c r="Z499" s="134"/>
+      <c r="AA499" s="134"/>
+      <c r="AB499" s="134"/>
+      <c r="AC499" s="134"/>
+      <c r="AD499" s="134"/>
+      <c r="AE499" s="134"/>
+      <c r="AF499" s="134"/>
+      <c r="AG499" s="134"/>
+      <c r="AH499" s="134"/>
+      <c r="AI499" s="134"/>
+    </row>
+    <row r="500" spans="1:35" s="132" customFormat="1">
       <c r="A500"/>
       <c r="B500" s="97"/>
       <c r="C500" s="106"/>
@@ -16270,22 +16199,22 @@
       <c r="S500" s="106"/>
       <c r="T500" s="106"/>
       <c r="U500" s="106"/>
-      <c r="V500" s="136"/>
-      <c r="W500" s="136"/>
-      <c r="X500" s="136"/>
-      <c r="Y500" s="136"/>
-      <c r="Z500" s="136"/>
-      <c r="AA500" s="136"/>
-      <c r="AB500" s="136"/>
-      <c r="AC500" s="136"/>
-      <c r="AD500" s="136"/>
-      <c r="AE500" s="136"/>
-      <c r="AF500" s="136"/>
-      <c r="AG500" s="136"/>
-      <c r="AH500" s="136"/>
-      <c r="AI500" s="136"/>
-    </row>
-    <row r="501" spans="1:35" s="134" customFormat="1">
+      <c r="V500" s="134"/>
+      <c r="W500" s="134"/>
+      <c r="X500" s="134"/>
+      <c r="Y500" s="134"/>
+      <c r="Z500" s="134"/>
+      <c r="AA500" s="134"/>
+      <c r="AB500" s="134"/>
+      <c r="AC500" s="134"/>
+      <c r="AD500" s="134"/>
+      <c r="AE500" s="134"/>
+      <c r="AF500" s="134"/>
+      <c r="AG500" s="134"/>
+      <c r="AH500" s="134"/>
+      <c r="AI500" s="134"/>
+    </row>
+    <row r="501" spans="1:35" s="132" customFormat="1">
       <c r="A501"/>
       <c r="B501" s="97"/>
       <c r="C501" s="106"/>
@@ -16307,20 +16236,20 @@
       <c r="S501" s="106"/>
       <c r="T501" s="106"/>
       <c r="U501" s="106"/>
-      <c r="V501" s="136"/>
-      <c r="W501" s="136"/>
-      <c r="X501" s="136"/>
-      <c r="Y501" s="136"/>
-      <c r="Z501" s="136"/>
-      <c r="AA501" s="136"/>
-      <c r="AB501" s="136"/>
-      <c r="AC501" s="136"/>
-      <c r="AD501" s="136"/>
-      <c r="AE501" s="136"/>
-      <c r="AF501" s="136"/>
-      <c r="AG501" s="136"/>
-      <c r="AH501" s="136"/>
-      <c r="AI501" s="136"/>
+      <c r="V501" s="134"/>
+      <c r="W501" s="134"/>
+      <c r="X501" s="134"/>
+      <c r="Y501" s="134"/>
+      <c r="Z501" s="134"/>
+      <c r="AA501" s="134"/>
+      <c r="AB501" s="134"/>
+      <c r="AC501" s="134"/>
+      <c r="AD501" s="134"/>
+      <c r="AE501" s="134"/>
+      <c r="AF501" s="134"/>
+      <c r="AG501" s="134"/>
+      <c r="AH501" s="134"/>
+      <c r="AI501" s="134"/>
     </row>
     <row r="502" spans="1:35">
       <c r="A502"/>
